--- a/data/vip_api_case.xlsx
+++ b/data/vip_api_case.xlsx
@@ -22871,7 +22871,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
